--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43141,6 +43141,41 @@
         <v>291000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>330100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43176,6 +43176,41 @@
         <v>330100</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>245900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43211,6 +43211,41 @@
         <v>245900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>103900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43246,6 +43246,41 @@
         <v>103900</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1091700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43281,6 +43281,41 @@
         <v>1091700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>528200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43316,6 +43316,41 @@
         <v>528200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>724500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43351,6 +43351,41 @@
         <v>724500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>783000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43386,6 +43386,41 @@
         <v>783000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>2170300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43421,6 +43421,41 @@
         <v>2170300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>377000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43456,6 +43456,41 @@
         <v>377000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>299300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43491,6 +43491,41 @@
         <v>299300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>225500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43526,6 +43526,41 @@
         <v>225500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>352600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43561,6 +43561,76 @@
         <v>352600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>2832300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1015700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43631,6 +43631,76 @@
         <v>1015700</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2019700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>886600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43701,6 +43701,41 @@
         <v>886600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>2384600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43736,6 +43736,41 @@
         <v>2384600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>310700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43771,6 +43771,41 @@
         <v>310700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>437000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43806,6 +43806,41 @@
         <v>437000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1398500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43841,6 +43841,76 @@
         <v>1398500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2589300</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2185500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43911,6 +43911,41 @@
         <v>2185500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>645800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43946,6 +43946,41 @@
         <v>645800</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>3484900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2040"/>
+  <dimension ref="A1:I2041"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71946,6 +71946,41 @@
         <v>3484900</v>
       </c>
     </row>
+    <row r="2041">
+      <c r="A2041" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2041" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2041" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2041" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2041" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2041" t="n">
+        <v>2848600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2041"/>
+  <dimension ref="A1:I2042"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71981,6 +71981,41 @@
         <v>2848600</v>
       </c>
     </row>
+    <row r="2042">
+      <c r="A2042" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2042" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2042" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2042" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2042" t="n">
+        <v>2696000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2042"/>
+  <dimension ref="A1:I2043"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72016,6 +72016,41 @@
         <v>2696000</v>
       </c>
     </row>
+    <row r="2043">
+      <c r="A2043" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2043" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2043" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2043" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2043" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2043" t="n">
+        <v>6262600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2043"/>
+  <dimension ref="A1:I2044"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72051,6 +72051,41 @@
         <v>6262600</v>
       </c>
     </row>
+    <row r="2044">
+      <c r="A2044" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2044" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2044" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2044" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2044" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2044" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2044" t="n">
+        <v>773300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2044"/>
+  <dimension ref="A1:I2045"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72086,6 +72086,41 @@
         <v>773300</v>
       </c>
     </row>
+    <row r="2045">
+      <c r="A2045" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2045" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2045" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2045" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2045" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2045" t="n">
+        <v>386300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2045"/>
+  <dimension ref="A1:I2046"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72121,6 +72121,41 @@
         <v>386300</v>
       </c>
     </row>
+    <row r="2046">
+      <c r="A2046" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2046" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2046" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2046" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2046" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2046" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I2046" t="n">
+        <v>116600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2046"/>
+  <dimension ref="A1:I2047"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72156,6 +72156,41 @@
         <v>116600</v>
       </c>
     </row>
+    <row r="2047">
+      <c r="A2047" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2047" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2047" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2047" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2047" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2047" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I2047" t="n">
+        <v>107100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2047"/>
+  <dimension ref="A1:I2048"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72191,6 +72191,41 @@
         <v>107100</v>
       </c>
     </row>
+    <row r="2048">
+      <c r="A2048" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2048" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2048" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2048" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2048" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2048" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2048" t="n">
+        <v>960400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2048"/>
+  <dimension ref="A1:I2049"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72226,6 +72226,41 @@
         <v>960400</v>
       </c>
     </row>
+    <row r="2049">
+      <c r="A2049" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2049" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2049" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2049" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2049" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2049" t="n">
+        <v>871000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2049"/>
+  <dimension ref="A1:I2050"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72261,6 +72261,41 @@
         <v>871000</v>
       </c>
     </row>
+    <row r="2050">
+      <c r="A2050" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2050" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2050" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2050" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2050" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2050" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2050" t="n">
+        <v>1369900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2050"/>
+  <dimension ref="A1:I2051"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72296,6 +72296,41 @@
         <v>1369900</v>
       </c>
     </row>
+    <row r="2051">
+      <c r="A2051" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2051" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2051" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2051" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2051" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2051" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2051" t="n">
+        <v>1181900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2051"/>
+  <dimension ref="A1:I2052"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72331,6 +72331,41 @@
         <v>1181900</v>
       </c>
     </row>
+    <row r="2052">
+      <c r="A2052" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2052" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2052" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2052" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2052" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2052" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2052" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2052" t="n">
+        <v>655700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2052"/>
+  <dimension ref="A1:I2053"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72366,6 +72366,41 @@
         <v>655700</v>
       </c>
     </row>
+    <row r="2053">
+      <c r="A2053" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2053" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2053" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2053" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2053" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2053" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2053" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2053" t="n">
+        <v>2086400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2053"/>
+  <dimension ref="A1:I2054"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72401,6 +72401,41 @@
         <v>2086400</v>
       </c>
     </row>
+    <row r="2054">
+      <c r="A2054" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2054" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2054" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2054" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2054" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2054" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2054" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2054" t="n">
+        <v>2339200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2054"/>
+  <dimension ref="A1:I2055"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72436,6 +72436,41 @@
         <v>2339200</v>
       </c>
     </row>
+    <row r="2055">
+      <c r="A2055" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2055" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2055" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2055" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2055" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2055" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2055" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2055" t="n">
+        <v>1324700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2800"/>
+  <dimension ref="A1:I2801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98546,6 +98546,41 @@
         <v>1324700</v>
       </c>
     </row>
+    <row r="2801">
+      <c r="A2801" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2801" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2801" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2801" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2801" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2801" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2801" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2801" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2801" t="n">
+        <v>5550000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2801"/>
+  <dimension ref="A1:I2802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98581,6 +98581,41 @@
         <v>5550000</v>
       </c>
     </row>
+    <row r="2802">
+      <c r="A2802" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2802" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2802" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2802" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2802" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2802" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G2802" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2802" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2802" t="n">
+        <v>5023600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2802"/>
+  <dimension ref="A1:I2803"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98616,6 +98616,41 @@
         <v>5023600</v>
       </c>
     </row>
+    <row r="2803">
+      <c r="A2803" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2803" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2803" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2803" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2803" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2803" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2803" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2803" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2803" t="n">
+        <v>2214600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2803"/>
+  <dimension ref="A1:I2804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98651,6 +98651,41 @@
         <v>2214600</v>
       </c>
     </row>
+    <row r="2804">
+      <c r="A2804" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2804" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2804" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2804" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2804" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2804" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2804" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2804" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2804" t="n">
+        <v>1375100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2804"/>
+  <dimension ref="A1:I2805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98686,6 +98686,41 @@
         <v>1375100</v>
       </c>
     </row>
+    <row r="2805">
+      <c r="A2805" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2805" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2805" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2805" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2805" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2805" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2805" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2805" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2805" t="n">
+        <v>1893700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2805"/>
+  <dimension ref="A1:I2806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98721,6 +98721,41 @@
         <v>1893700</v>
       </c>
     </row>
+    <row r="2806">
+      <c r="A2806" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2806" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2806" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2806" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2806" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2806" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2806" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2806" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2806" t="n">
+        <v>1915900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2806"/>
+  <dimension ref="A1:I2807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98756,6 +98756,41 @@
         <v>1915900</v>
       </c>
     </row>
+    <row r="2807">
+      <c r="A2807" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2807" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2807" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2807" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2807" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F2807" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G2807" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2807" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2807" t="n">
+        <v>1669700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2807"/>
+  <dimension ref="A1:I2808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98791,6 +98791,41 @@
         <v>1669700</v>
       </c>
     </row>
+    <row r="2808">
+      <c r="A2808" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2808" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2808" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2808" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2808" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2808" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2808" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2808" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2808" t="n">
+        <v>1018000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2808"/>
+  <dimension ref="A1:I2809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98826,6 +98826,41 @@
         <v>1018000</v>
       </c>
     </row>
+    <row r="2809">
+      <c r="A2809" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2809" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2809" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2809" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2809" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2809" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2809" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2809" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2809" t="n">
+        <v>1552400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2809"/>
+  <dimension ref="A1:I2810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98861,6 +98861,41 @@
         <v>1552400</v>
       </c>
     </row>
+    <row r="2810">
+      <c r="A2810" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2810" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2810" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2810" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2810" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2810" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2810" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2810" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2810" t="n">
+        <v>1657800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2810"/>
+  <dimension ref="A1:I2812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98896,6 +98896,76 @@
         <v>1657800</v>
       </c>
     </row>
+    <row r="2811">
+      <c r="A2811" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2811" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2811" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2811" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2811" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2811" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2811" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2811" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2811" t="n">
+        <v>2015300</v>
+      </c>
+    </row>
+    <row r="2812">
+      <c r="A2812" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2812" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2812" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2812" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2812" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2812" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2812" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2812" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2812" t="n">
+        <v>1258600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2812"/>
+  <dimension ref="A1:I2813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98966,6 +98966,41 @@
         <v>1258600</v>
       </c>
     </row>
+    <row r="2813">
+      <c r="A2813" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2813" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2813" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2813" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2813" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2813" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2813" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2813" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2813" t="n">
+        <v>662700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2813"/>
+  <dimension ref="A1:I2816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99001,6 +99001,111 @@
         <v>662700</v>
       </c>
     </row>
+    <row r="2814">
+      <c r="A2814" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2814" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2814" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2814" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2814" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2814" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2814" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2814" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2814" t="n">
+        <v>2653900</v>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2815" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2815" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2815" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2815" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2815" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2815" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2815" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2815" t="n">
+        <v>277400</v>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2816" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2816" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2816" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2816" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2816" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2816" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2816" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2816" t="n">
+        <v>3593100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2816"/>
+  <dimension ref="A1:I2817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99106,6 +99106,41 @@
         <v>3593100</v>
       </c>
     </row>
+    <row r="2817">
+      <c r="A2817" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2817" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2817" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2817" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2817" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2817" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2817" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2817" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2817" t="n">
+        <v>8336700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2817"/>
+  <dimension ref="A1:I2818"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99141,6 +99141,41 @@
         <v>8336700</v>
       </c>
     </row>
+    <row r="2818">
+      <c r="A2818" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2818" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2818" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2818" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2818" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2818" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2818" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H2818" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I2818" t="n">
+        <v>21134900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0075.xlsx
+++ b/data/0075.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2818"/>
+  <dimension ref="A1:I2821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99176,6 +99176,111 @@
         <v>21134900</v>
       </c>
     </row>
+    <row r="2819">
+      <c r="A2819" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2819" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2819" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2819" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2819" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2819" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G2819" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2819" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2819" t="n">
+        <v>4846800</v>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2820" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2820" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2820" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2820" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2820" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G2820" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2820" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I2820" t="n">
+        <v>26850700</v>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="A2821" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2821" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2821" t="inlineStr">
+        <is>
+          <t>0075</t>
+        </is>
+      </c>
+      <c r="D2821" t="inlineStr">
+        <is>
+          <t>LYC</t>
+        </is>
+      </c>
+      <c r="E2821" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2821" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2821" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H2821" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2821" t="n">
+        <v>29695900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
